--- a/Longitudinal_induction_analysis/OFT/OFT_longitudinal_data.xlsx
+++ b/Longitudinal_induction_analysis/OFT/OFT_longitudinal_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annastuckert/Documents/TDP control files/Longitudinal induction analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annastuckert/Documents/GitHub/TDPBehaviorAnalysis/Longitudinal_induction_analysis/OFT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094E08D-0447-9B4F-932B-785CE28A9FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F6F50-A262-A64A-B5E9-D77B8256654B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="620" windowWidth="14740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="500" windowWidth="14740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -92,6 +92,27 @@
   </si>
   <si>
     <t>128</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>281</t>
   </si>
 </sst>
 </file>
@@ -434,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:L31"/>
+      <selection activeCell="L43" sqref="L43:L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1433,6 +1454,804 @@
         <v>14</v>
       </c>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>5231.82</v>
+      </c>
+      <c r="C27">
+        <v>8.7255199999999995</v>
+      </c>
+      <c r="D27">
+        <v>437.92</v>
+      </c>
+      <c r="E27">
+        <v>162.04</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
+      <c r="G27">
+        <v>64.64</v>
+      </c>
+      <c r="H27">
+        <v>0.26</v>
+      </c>
+      <c r="I27">
+        <v>34</v>
+      </c>
+      <c r="J27">
+        <v>535.38</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>5094.26</v>
+      </c>
+      <c r="C28">
+        <v>8.4955300000000005</v>
+      </c>
+      <c r="D28">
+        <v>458.8</v>
+      </c>
+      <c r="E28">
+        <v>141.16</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>97.1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>34</v>
+      </c>
+      <c r="J28">
+        <v>502.92</v>
+      </c>
+      <c r="K28">
+        <v>6.12</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>5383.8</v>
+      </c>
+      <c r="C29">
+        <v>8.9783799999999996</v>
+      </c>
+      <c r="D29">
+        <v>436.96</v>
+      </c>
+      <c r="E29">
+        <v>163</v>
+      </c>
+      <c r="F29">
+        <v>54</v>
+      </c>
+      <c r="G29">
+        <v>150.16</v>
+      </c>
+      <c r="H29">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I29">
+        <v>55</v>
+      </c>
+      <c r="J29">
+        <v>449.86</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>5165.74</v>
+      </c>
+      <c r="C30">
+        <v>8.6147399999999994</v>
+      </c>
+      <c r="D30">
+        <v>436.76</v>
+      </c>
+      <c r="E30">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="F30">
+        <v>43</v>
+      </c>
+      <c r="G30">
+        <v>79.180000000000007</v>
+      </c>
+      <c r="H30">
+        <v>68.7</v>
+      </c>
+      <c r="I30">
+        <v>44</v>
+      </c>
+      <c r="J30">
+        <v>520.84</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>6577.42</v>
+      </c>
+      <c r="C31">
+        <v>10.9689</v>
+      </c>
+      <c r="D31">
+        <v>486.5</v>
+      </c>
+      <c r="E31">
+        <v>113.46</v>
+      </c>
+      <c r="F31">
+        <v>60</v>
+      </c>
+      <c r="G31">
+        <v>117.34</v>
+      </c>
+      <c r="H31">
+        <v>47.72</v>
+      </c>
+      <c r="I31">
+        <v>61</v>
+      </c>
+      <c r="J31">
+        <v>482.68</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>6407.52</v>
+      </c>
+      <c r="C32">
+        <v>10.685600000000001</v>
+      </c>
+      <c r="D32">
+        <v>462.92</v>
+      </c>
+      <c r="E32">
+        <v>137.04</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>99.66</v>
+      </c>
+      <c r="H32">
+        <v>3.06</v>
+      </c>
+      <c r="I32">
+        <v>51</v>
+      </c>
+      <c r="J32">
+        <v>500.36</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>6875.33</v>
+      </c>
+      <c r="C33">
+        <v>11.4658</v>
+      </c>
+      <c r="D33">
+        <v>506.56</v>
+      </c>
+      <c r="E33">
+        <v>93.4</v>
+      </c>
+      <c r="F33">
+        <v>87</v>
+      </c>
+      <c r="G33">
+        <v>197.78</v>
+      </c>
+      <c r="H33">
+        <v>16.64</v>
+      </c>
+      <c r="I33">
+        <v>88</v>
+      </c>
+      <c r="J33">
+        <v>402.24</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>4055.31</v>
+      </c>
+      <c r="C34">
+        <v>6.7638199999999999</v>
+      </c>
+      <c r="D34">
+        <v>422.88</v>
+      </c>
+      <c r="E34">
+        <v>177.06</v>
+      </c>
+      <c r="F34">
+        <v>36</v>
+      </c>
+      <c r="G34">
+        <v>144.74</v>
+      </c>
+      <c r="H34">
+        <v>1.4</v>
+      </c>
+      <c r="I34">
+        <v>37</v>
+      </c>
+      <c r="J34">
+        <v>455.28</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>2612.44</v>
+      </c>
+      <c r="C35">
+        <v>4.3566799999999999</v>
+      </c>
+      <c r="D35">
+        <v>351.92</v>
+      </c>
+      <c r="E35">
+        <v>248.04</v>
+      </c>
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35">
+        <v>215.94</v>
+      </c>
+      <c r="H35">
+        <v>6.24</v>
+      </c>
+      <c r="I35">
+        <v>31</v>
+      </c>
+      <c r="J35">
+        <v>384.08</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>5120.7299999999996</v>
+      </c>
+      <c r="C36">
+        <v>8.5396699999999992</v>
+      </c>
+      <c r="D36">
+        <v>494.62</v>
+      </c>
+      <c r="E36">
+        <v>105.34</v>
+      </c>
+      <c r="F36">
+        <v>61</v>
+      </c>
+      <c r="G36">
+        <v>205.5</v>
+      </c>
+      <c r="H36">
+        <v>0.3</v>
+      </c>
+      <c r="I36">
+        <v>62</v>
+      </c>
+      <c r="J36">
+        <v>394.52</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>4690.6400000000003</v>
+      </c>
+      <c r="C37">
+        <v>7.82294</v>
+      </c>
+      <c r="D37">
+        <v>433.04</v>
+      </c>
+      <c r="E37">
+        <v>166.92</v>
+      </c>
+      <c r="F37">
+        <v>49</v>
+      </c>
+      <c r="G37">
+        <v>96.28</v>
+      </c>
+      <c r="H37">
+        <v>5.14</v>
+      </c>
+      <c r="I37">
+        <v>49</v>
+      </c>
+      <c r="J37">
+        <v>503.74</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>5615.85</v>
+      </c>
+      <c r="C38">
+        <v>9.3653700000000004</v>
+      </c>
+      <c r="D38">
+        <v>482.24</v>
+      </c>
+      <c r="E38">
+        <v>117.72</v>
+      </c>
+      <c r="F38">
+        <v>47</v>
+      </c>
+      <c r="G38">
+        <v>92.04</v>
+      </c>
+      <c r="H38">
+        <v>7.26</v>
+      </c>
+      <c r="I38">
+        <v>48</v>
+      </c>
+      <c r="J38">
+        <v>507.98</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>4244.9399999999996</v>
+      </c>
+      <c r="C39">
+        <v>7.0791599999999999</v>
+      </c>
+      <c r="D39">
+        <v>414.9</v>
+      </c>
+      <c r="E39">
+        <v>185.06</v>
+      </c>
+      <c r="F39">
+        <v>42</v>
+      </c>
+      <c r="G39">
+        <v>111.48</v>
+      </c>
+      <c r="H39">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I39">
+        <v>43</v>
+      </c>
+      <c r="J39">
+        <v>488.54</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>4613.49</v>
+      </c>
+      <c r="C40">
+        <v>7.6937699999999998</v>
+      </c>
+      <c r="D40">
+        <v>430.54</v>
+      </c>
+      <c r="E40">
+        <v>169.42</v>
+      </c>
+      <c r="F40">
+        <v>69</v>
+      </c>
+      <c r="G40">
+        <v>104.38</v>
+      </c>
+      <c r="H40">
+        <v>3.68</v>
+      </c>
+      <c r="I40">
+        <v>70</v>
+      </c>
+      <c r="J40">
+        <v>495.64</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <v>4204.1099999999997</v>
+      </c>
+      <c r="C41">
+        <v>7.0110599999999996</v>
+      </c>
+      <c r="D41">
+        <v>443.32</v>
+      </c>
+      <c r="E41">
+        <v>156.63999999999999</v>
+      </c>
+      <c r="F41">
+        <v>49</v>
+      </c>
+      <c r="G41">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="H41">
+        <v>6.12</v>
+      </c>
+      <c r="I41">
+        <v>49</v>
+      </c>
+      <c r="J41">
+        <v>461.22</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>4165</v>
+      </c>
+      <c r="C42">
+        <v>6.9458399999999996</v>
+      </c>
+      <c r="D42">
+        <v>343.7</v>
+      </c>
+      <c r="E42">
+        <v>256.26</v>
+      </c>
+      <c r="F42">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="H42">
+        <v>118.76</v>
+      </c>
+      <c r="I42">
+        <v>39</v>
+      </c>
+      <c r="J42">
+        <v>518.76</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <v>7007.06</v>
+      </c>
+      <c r="C43">
+        <v>11.6854</v>
+      </c>
+      <c r="D43">
+        <v>515.54</v>
+      </c>
+      <c r="E43">
+        <v>84.4</v>
+      </c>
+      <c r="F43">
+        <v>43</v>
+      </c>
+      <c r="G43">
+        <v>77.92</v>
+      </c>
+      <c r="H43">
+        <v>22.82</v>
+      </c>
+      <c r="I43">
+        <v>44</v>
+      </c>
+      <c r="J43">
+        <v>522.1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44">
+        <v>6304.13</v>
+      </c>
+      <c r="C44">
+        <v>10.513199999999999</v>
+      </c>
+      <c r="D44">
+        <v>453.88</v>
+      </c>
+      <c r="E44">
+        <v>146.08000000000001</v>
+      </c>
+      <c r="F44">
+        <v>53</v>
+      </c>
+      <c r="G44">
+        <v>85</v>
+      </c>
+      <c r="H44">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="I44">
+        <v>53</v>
+      </c>
+      <c r="J44">
+        <v>515.02</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45">
+        <v>3909.78</v>
+      </c>
+      <c r="C45">
+        <v>6.5202099999999996</v>
+      </c>
+      <c r="D45">
+        <v>403.6</v>
+      </c>
+      <c r="E45">
+        <v>196.36</v>
+      </c>
+      <c r="F45">
+        <v>68</v>
+      </c>
+      <c r="G45">
+        <v>114.08</v>
+      </c>
+      <c r="H45">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="I45">
+        <v>69</v>
+      </c>
+      <c r="J45">
+        <v>485.94</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46">
+        <v>5502.81</v>
+      </c>
+      <c r="C46">
+        <v>9.17685</v>
+      </c>
+      <c r="D46">
+        <v>505.66</v>
+      </c>
+      <c r="E46">
+        <v>94.3</v>
+      </c>
+      <c r="F46">
+        <v>48</v>
+      </c>
+      <c r="G46">
+        <v>116.94</v>
+      </c>
+      <c r="H46">
+        <v>6.8</v>
+      </c>
+      <c r="I46">
+        <v>49</v>
+      </c>
+      <c r="J46">
+        <v>483.08</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <v>4522.7</v>
+      </c>
+      <c r="C47">
+        <v>7.5423499999999999</v>
+      </c>
+      <c r="D47">
+        <v>370.02</v>
+      </c>
+      <c r="E47">
+        <v>229.94</v>
+      </c>
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
+        <v>65.28</v>
+      </c>
+      <c r="H47">
+        <v>55.12</v>
+      </c>
+      <c r="I47">
+        <v>51</v>
+      </c>
+      <c r="J47">
+        <v>534.74</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
